--- a/TEST DATA/Sir Elton/Sample_2/Input/input.xlsx
+++ b/TEST DATA/Sir Elton/Sample_2/Input/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mp/Desktop/jona_new/esa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\MBPI-Projects\RM-Consumption-Management-System\TEST DATA\Sir Elton\Sample_2\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E630521A-77E6-9E42-B903-2E4339B4DF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10B5F60-3332-471B-9659-EFB3196D4C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16200" yWindow="5180" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{C83490A5-E140-B74A-A84C-DFEC8A17F018}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C83490A5-E140-B74A-A84C-DFEC8A17F018}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -280,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -292,9 +292,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -312,6 +309,20 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -649,17 +660,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31915E9F-6B3C-F748-A9BC-18846C757AA3}">
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O1048576"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="1"/>
+    <col min="4" max="4" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -684,52 +695,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>45672</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="16">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>7584</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="17">
         <v>12000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>45672</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>7585</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="17">
         <v>546</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -749,255 +761,256 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>45672</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>10335</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="17">
         <v>975</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>45672</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>10335</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="17">
         <v>130</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>45672</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>10335</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="17">
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>45672</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>10335</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="17">
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>45672</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>10335</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="17">
         <v>1400</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>45672</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>10335</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="17">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>45672</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>10335</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="17">
         <v>400</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
         <v>45672</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="21">
         <v>10336</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="22">
         <v>25</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="H23" s="21"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="11" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="11" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C27" s="14"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C27" s="13"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="C28" s="14"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C28" s="13"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1014,41 +1027,41 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
         <v>45672</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>1</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>4547</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
         <v>45672</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>4547</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="17">
         <v>550</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
     </row>
   </sheetData>
@@ -1060,23 +1073,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071BAFD7-7829-5143-A290-666963AC9D6E}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625"/>
-    <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625"/>
+    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.125"/>
+    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="10.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -1084,11 +1097,11 @@
         <v>4675</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>45670</v>
       </c>
       <c r="C2" t="s">
@@ -1096,7 +1109,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -1107,62 +1120,62 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="17">
         <v>37.53</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C5" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="17">
         <v>14.92</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="17">
         <v>14.87</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="15">
         <f>C6-B6</f>
         <v>-5.0000000000000711E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="17">
         <v>7.44</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="17">
         <v>5</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1173,15 +1186,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>45663</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
@@ -1192,8 +1205,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="1">
@@ -1202,13 +1215,13 @@
       <c r="C15" s="1">
         <v>10.89</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="15">
         <f>C15-B15</f>
         <v>-1084.8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="1">
@@ -1217,13 +1230,13 @@
       <c r="C16" s="1">
         <v>11.35</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <f t="shared" ref="D16:D19" si="0">C16-B16</f>
         <v>-2196.59</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="1">
@@ -1232,13 +1245,13 @@
       <c r="C17" s="1">
         <v>109.82</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <f t="shared" si="0"/>
         <v>-1125.18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="1">
@@ -1247,13 +1260,13 @@
       <c r="C18" s="1">
         <v>10.9</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <f t="shared" si="0"/>
         <v>-4.3699999999999992</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="1">
@@ -1262,16 +1275,16 @@
       <c r="C19" s="1">
         <v>5.64</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <f t="shared" si="0"/>
         <v>-4.5000000000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
@@ -1280,23 +1293,23 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>45671</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1307,8 +1320,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="1">
@@ -1318,8 +1331,8 @@
         <v>14.87</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="1">
@@ -1332,8 +1345,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="1">
@@ -1343,8 +1356,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="1">
@@ -1354,8 +1367,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="1">
@@ -1365,8 +1378,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B31" s="1">
@@ -1376,11 +1389,11 @@
         <v>6.46</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
@@ -1388,18 +1401,18 @@
         <v>4683</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <v>45671</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
@@ -1410,33 +1423,33 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="17">
         <v>25.38</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="17">
         <v>24.32</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="17">
         <v>1.1100000000000001</v>
       </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>28</v>
       </c>
@@ -1447,15 +1460,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="14">
         <v>45671</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>30</v>
       </c>
@@ -1466,8 +1479,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B46" s="1">
@@ -1477,8 +1490,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="1">
@@ -1488,8 +1501,8 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="1">
@@ -1499,8 +1512,8 @@
         <v>2.35</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B49" s="1">
@@ -1510,8 +1523,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B50" s="1">
@@ -1521,11 +1534,11 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>28</v>
       </c>
@@ -1536,15 +1549,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="14">
         <v>45671</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
@@ -1555,73 +1568,73 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="C57" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="17">
         <v>10.34</v>
       </c>
-      <c r="C58" s="1">
+      <c r="C58" s="17">
         <v>9.9499999999999993</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="17">
         <v>10.9</v>
       </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="C59" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="17">
         <v>8.58</v>
       </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="C60" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="17">
         <v>1.22</v>
       </c>
-      <c r="C61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="C61" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="17">
         <v>1.22</v>
       </c>
-      <c r="C62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>28</v>
       </c>
@@ -1632,15 +1645,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="14">
         <v>45672</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>30</v>
       </c>
@@ -1651,84 +1664,84 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="17">
         <v>21.88</v>
       </c>
-      <c r="C69" s="1">
+      <c r="C69" s="17">
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="17">
         <v>24.32</v>
       </c>
-      <c r="C70" s="1">
+      <c r="C70" s="17">
         <v>22.4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="17">
         <v>11.17</v>
       </c>
-      <c r="C71" s="1">
+      <c r="C71" s="17">
         <v>8.5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="17">
         <v>0.76</v>
       </c>
-      <c r="C72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="C72" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="17">
         <v>0.76</v>
       </c>
-      <c r="C73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="C73" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="17">
         <v>10.07</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="17">
         <v>6.63</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="17">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="17">
         <v>1.21</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>28</v>
       </c>
@@ -1736,18 +1749,18 @@
         <v>4661</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B79" s="15">
+      <c r="B79" s="14">
         <v>45668</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>30</v>
       </c>
@@ -1758,88 +1771,88 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="17">
         <v>16.8</v>
       </c>
-      <c r="C82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="C82" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="17">
         <v>4.25</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="17">
         <v>1.77</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="17">
         <v>9.68</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="17">
         <v>9.57</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="17">
         <v>7.5</v>
       </c>
-      <c r="C85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="C85" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="17">
         <v>7.5</v>
       </c>
-      <c r="C86" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="C86" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="17">
         <v>63.1</v>
       </c>
-      <c r="C87" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="C87" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="17">
         <v>54</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="17">
         <v>1.64</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>28</v>
       </c>
@@ -1850,19 +1863,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B92" s="15">
+      <c r="B92" s="14">
         <v>45671</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>30</v>
       </c>
@@ -1873,8 +1886,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B95" s="1">
@@ -1884,8 +1897,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B96" s="1">
@@ -1895,8 +1908,8 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B97" s="1">
@@ -1906,8 +1919,8 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B98" s="1">
@@ -1917,8 +1930,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B99" s="1">
@@ -1928,8 +1941,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B100" s="1">
@@ -1939,8 +1952,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B101" s="1">
@@ -1950,11 +1963,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>28</v>
       </c>
@@ -1965,15 +1978,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="15">
+      <c r="B105" s="14">
         <v>45671</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>30</v>
       </c>
@@ -1984,8 +1997,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B108" s="1">
@@ -1994,13 +2007,13 @@
       <c r="C108" s="1">
         <v>4.1399999999999997</v>
       </c>
-      <c r="D108" s="16">
+      <c r="D108" s="15">
         <f>C108-B108</f>
         <v>-119.17999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B109" s="1">
@@ -2009,13 +2022,13 @@
       <c r="C109" s="1">
         <v>20.67</v>
       </c>
-      <c r="D109" s="16">
+      <c r="D109" s="15">
         <f t="shared" ref="D109:D115" si="1">C109-B109</f>
         <v>-64.41</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B110" s="1">
@@ -2024,13 +2037,13 @@
       <c r="C110" s="1">
         <v>1.74</v>
       </c>
-      <c r="D110" s="16">
+      <c r="D110" s="15">
         <f t="shared" si="1"/>
         <v>-14.979999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B111" s="1">
@@ -2039,13 +2052,13 @@
       <c r="C111" s="1">
         <v>0</v>
       </c>
-      <c r="D111" s="16">
+      <c r="D111" s="15">
         <f t="shared" si="1"/>
         <v>-240</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B112" s="1">
@@ -2054,13 +2067,13 @@
       <c r="C112" s="1">
         <v>0</v>
       </c>
-      <c r="D112" s="16">
+      <c r="D112" s="15">
         <f t="shared" si="1"/>
         <v>-60</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B113" s="1">
@@ -2069,37 +2082,37 @@
       <c r="C113" s="1">
         <v>15.86</v>
       </c>
-      <c r="D113" s="16">
+      <c r="D113" s="15">
         <f t="shared" si="1"/>
         <v>-1434.14</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="17">
         <v>612</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C114" s="17">
         <v>15.82</v>
       </c>
-      <c r="D114" s="16">
+      <c r="D114" s="23">
         <f t="shared" si="1"/>
         <v>-596.17999999999995</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="17">
         <v>450</v>
       </c>
-      <c r="C115" s="1">
-        <v>0</v>
-      </c>
-      <c r="D115" s="16">
+      <c r="C115" s="17">
+        <v>0</v>
+      </c>
+      <c r="D115" s="23">
         <f t="shared" si="1"/>
         <v>-450</v>
       </c>
